--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3561036.233571009</v>
+        <v>3665062.285431516</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7675807.357991126</v>
+        <v>7639647.645709573</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>153.2695431141196</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>21.27902055890954</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>24.32202182135272</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>105.0076120744436</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>8.751194497889847</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>205.9405436604963</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>148.8855927081619</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.0955237083907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>361.1184520354001</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>5.247097505316528</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>20.92567413621673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>258.2311541101741</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.26309598425066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>67.96386702300542</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>71.39698738222812</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>224.8135144063196</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>9.592641220496363</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652576</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>77.3950726440254</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>206.6447768750174</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C43" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261725</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.239490800229</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808189</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352503</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>139.244080764313</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>567.8558366504435</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>560.91033590124</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2045.005273469845</v>
+        <v>410.1326375818733</v>
       </c>
       <c r="C4" t="n">
-        <v>1876.069090541939</v>
+        <v>241.1964546539664</v>
       </c>
       <c r="D4" t="n">
-        <v>1876.069090541939</v>
+        <v>91.07981524163063</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>91.07981524163063</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>91.07981524163063</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>91.07981524163063</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>91.07981524163063</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>3219.53752658448</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>2964.853038378593</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>2675.435868341632</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X4" t="n">
-        <v>2447.446317443615</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y4" t="n">
-        <v>2226.653738300085</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>84.48966329598636</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
@@ -4644,52 +4646,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218343</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484277</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.336584543865</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1257.336584543865</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4838,16 +4840,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524211</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548399</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.5757713318899</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C10" t="n">
-        <v>698.5757713318899</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>548.4591319195541</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1354.85792580931</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1100.173437603423</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>810.7562675664626</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>810.7562675664626</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5288,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5428,10 +5430,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5479,7 +5481,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,10 +5521,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,10 +5536,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2124.944376414609</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>379.6759351444941</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>212.4798358593741</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.8620388433919</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.925817935984</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2261.070983590888</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>2041.469518613829</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958027</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.70980375214</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715179</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171618</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736317</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,13 +7022,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,16 +7180,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
         <v>1964.511902868375</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.5688841976866</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>6.257951202384561</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>150.6207863290894</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>22.81817176293569</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>61.7094839302714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.36835372228757</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>260.4525338942701</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>136.8413214260728</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>11.93987647707743</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>110.2232578818469</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669032.2951916731</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657916.1590522511</v>
+        <v>657916.1590522513</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="E2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710693</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363185</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="D4" t="n">
-        <v>92183.89891818172</v>
-      </c>
       <c r="E4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="H4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683047</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992391</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.7234099239</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992393</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360985</v>
+        <v>-748872.9038360986</v>
       </c>
       <c r="C6" t="n">
+        <v>579871.8418914939</v>
+      </c>
+      <c r="D6" t="n">
         <v>579871.8418914941</v>
       </c>
-      <c r="D6" t="n">
-        <v>579871.8418914939</v>
-      </c>
       <c r="E6" t="n">
-        <v>327257.4139274131</v>
+        <v>327257.4139274132</v>
       </c>
       <c r="F6" t="n">
+        <v>652669.8757347686</v>
+      </c>
+      <c r="G6" t="n">
+        <v>652669.8757347683</v>
+      </c>
+      <c r="H6" t="n">
+        <v>652669.8757347681</v>
+      </c>
+      <c r="I6" t="n">
+        <v>652669.8757347683</v>
+      </c>
+      <c r="J6" t="n">
+        <v>435138.6733374912</v>
+      </c>
+      <c r="K6" t="n">
+        <v>652669.8757347687</v>
+      </c>
+      <c r="L6" t="n">
         <v>652669.8757347685</v>
       </c>
-      <c r="G6" t="n">
-        <v>652669.8757347687</v>
-      </c>
-      <c r="H6" t="n">
-        <v>652669.8757347682</v>
-      </c>
-      <c r="I6" t="n">
-        <v>652669.8757347688</v>
-      </c>
-      <c r="J6" t="n">
-        <v>435138.6733374909</v>
-      </c>
-      <c r="K6" t="n">
-        <v>636410.1241135983</v>
-      </c>
-      <c r="L6" t="n">
-        <v>655837.8421072302</v>
-      </c>
       <c r="M6" t="n">
-        <v>570782.8141717182</v>
+        <v>567614.8477992564</v>
       </c>
       <c r="N6" t="n">
-        <v>655837.8421072299</v>
+        <v>652669.8757347686</v>
       </c>
       <c r="O6" t="n">
-        <v>655837.84210723</v>
+        <v>652669.8757347683</v>
       </c>
       <c r="P6" t="n">
         <v>652669.8757347683</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,19 +26798,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>257.6521825393338</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>306.4732379112253</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>72.03039858848537</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>181.2042261311693</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>340.4897742195232</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>163.7905570179727</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>30.94638747377545</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.48912964370405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>20.81191803686164</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>322.5051609648184</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>125.5082885103524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>27.98068409543879</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>307.465452939363</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>710.7237876039896</v>
+        <v>558.375963895806</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33046,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>579.8936048175474</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33514,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,16 +33742,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>200.3460366764704</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206129</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>264.8708611242914</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>568.5897536819714</v>
+        <v>416.2419299737876</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>448.5518927342141</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.74979223202591</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394616</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3665062.285431516</v>
+        <v>3661049.675417523</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>153.2695431141196</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>159.7403262583177</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>82.70057996958705</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>24.32202182135272</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>69.58803352250777</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>205.9405436604963</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.8855927081619</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.71439411231534</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>118.5482349853187</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>5.247097505316528</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.70057996958684</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>258.2311541101741</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>84.8780074336923</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>219.4517041866526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.96386702300542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>135.0949745400657</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>117.4765410832882</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>224.8135144063196</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>128.3548363691463</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>25.73194049497408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.592641220496363</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>77.3950726440254</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.6447768750174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>35.19779014108431</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>146.053516066753</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.30088041042183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>139.244080764313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855438</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6440892486878</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>567.8558366504435</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>560.91033590124</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686083</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064758</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410.1326375818733</v>
+        <v>1007.446783179746</v>
       </c>
       <c r="C4" t="n">
-        <v>241.1964546539664</v>
+        <v>838.5106002518388</v>
       </c>
       <c r="D4" t="n">
-        <v>91.07981524163063</v>
+        <v>688.3939608395031</v>
       </c>
       <c r="E4" t="n">
-        <v>91.07981524163063</v>
+        <v>540.4808672571099</v>
       </c>
       <c r="F4" t="n">
-        <v>91.07981524163063</v>
+        <v>393.5909197591996</v>
       </c>
       <c r="G4" t="n">
-        <v>91.07981524163063</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>91.07981524163063</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556431</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>591.781102412113</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.506131441393</v>
+        <v>1363.124011696104</v>
       </c>
       <c r="C5" t="n">
-        <v>828.5436145009811</v>
+        <v>1363.124011696104</v>
       </c>
       <c r="D5" t="n">
-        <v>470.2779158942306</v>
+        <v>1004.858313089354</v>
       </c>
       <c r="E5" t="n">
-        <v>84.48966329598636</v>
+        <v>1004.858313089354</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>593.8724082997462</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>178.7999581447427</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267232</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2866.097597267232</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2513.328941997117</v>
       </c>
       <c r="X5" t="n">
-        <v>1974.245303481326</v>
+        <v>2139.863183736038</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.105971505515</v>
+        <v>1749.723851760226</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.181730276492</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760412</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1890.209301510397</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1601.106434636041</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1346.421946430154</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1057.004776393193</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>829.0152254951761</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>601.3302584915493</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>186.2578083365458</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2750.506830304106</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2750.506830304106</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.041072043026</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1354.85792580931</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1100.173437603423</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>810.7562675664626</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X10" t="n">
-        <v>810.7562675664626</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.7562675664626</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>379.6759351444941</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>212.4798358593741</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>685.46715328122</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>537.5540596988269</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>390.6641122009165</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>223.4680129157965</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990607</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154069</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4207169875</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>559.3040775751642</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>378.6527890600109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2257.062161108198</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2257.062161108198</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>639.6425904082687</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>470.7064074803617</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1003.633608981239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.262924751342039e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.64613085857654</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>6.257951202384561</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.6207863290894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>32.15184655856214</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>22.81817176293569</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>61.7094839302714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>11.93987647707755</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>260.4525338942701</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>136.8413214260728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>71.22040037418695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.93987647707743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>110.2232578818469</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818157</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818153</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360986</v>
+        <v>-748872.903836099</v>
       </c>
       <c r="C6" t="n">
-        <v>579871.8418914939</v>
+        <v>579871.8418914942</v>
       </c>
       <c r="D6" t="n">
-        <v>579871.8418914941</v>
+        <v>579871.8418914945</v>
       </c>
       <c r="E6" t="n">
-        <v>327257.4139274132</v>
+        <v>326910.0346730566</v>
       </c>
       <c r="F6" t="n">
-        <v>652669.8757347686</v>
+        <v>652322.4964804109</v>
       </c>
       <c r="G6" t="n">
-        <v>652669.8757347683</v>
+        <v>652322.4964804115</v>
       </c>
       <c r="H6" t="n">
-        <v>652669.8757347681</v>
+        <v>652322.4964804115</v>
       </c>
       <c r="I6" t="n">
-        <v>652669.8757347683</v>
+        <v>652322.4964804115</v>
       </c>
       <c r="J6" t="n">
-        <v>435138.6733374912</v>
+        <v>434791.2940831335</v>
       </c>
       <c r="K6" t="n">
-        <v>652669.8757347687</v>
+        <v>652322.4964804115</v>
       </c>
       <c r="L6" t="n">
-        <v>652669.8757347685</v>
+        <v>652322.4964804115</v>
       </c>
       <c r="M6" t="n">
-        <v>567614.8477992564</v>
+        <v>567267.4685448996</v>
       </c>
       <c r="N6" t="n">
-        <v>652669.8757347686</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="O6" t="n">
-        <v>652669.8757347683</v>
+        <v>652322.4964804114</v>
       </c>
       <c r="P6" t="n">
-        <v>652669.8757347683</v>
+        <v>652322.4964804114</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,11 +27390,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>257.6521825393338</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.1776438813024</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944117</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>72.03039858848537</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>225.0197308648127</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>163.7905570179727</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.94638747377545</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>182.8345551638538</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>176.0595294020017</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>322.5051609648184</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>27.98068409543879</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948329</v>
+        <v>573.8098963904301</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>624.1318526922785</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>152.5685698206129</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34447,28 +34447,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281453</v>
+        <v>431.6758624684119</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>481.5356082478341</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>25.73094315394616</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,28 +38095,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3661049.675417523</v>
+        <v>3662810.20572031</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482921</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>159.7403262583177</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>82.70057996958705</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476225</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>69.58803352250777</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.71439411231534</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>27.87679665314561</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>118.5482349853187</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11015198958226</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958684</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>84.8780074336923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>128.3548363691463</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>146.053516066753</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>261.5505590167096</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985468</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3053.961288228877</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3053.961288228877</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3053.961288228877</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2701.192632958762</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.726874697682</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697682</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4391,7 +4391,7 @@
         <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609105</v>
@@ -4400,37 +4400,37 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179746</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518388</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395031</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571099</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591996</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,28 +4485,28 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4527,13 +4527,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051533</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696104</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.124011696104</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.858313089354</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.858313089354</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="F5" t="n">
-        <v>593.8724082997462</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>178.7999581447427</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267232</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267232</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997117</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736038</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760226</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4643,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
         <v>478.4305777370295</v>
@@ -4722,55 +4722,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1890.209301510397</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1601.106434636041</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1346.421946430154</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.004776393193</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>829.0152254951761</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.0152254951761</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281157</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281157</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.316163281157</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>601.3302584915493</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>186.2578083365458</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522582</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4941,16 +4941,16 @@
         <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518386</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395028</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571097</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591993</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4959,22 +4959,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5001,7 +5001,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051533</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
         <v>1409.887827153515</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5323,7 +5323,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5989,7 +5989,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>835.5837926935558</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>685.46715328122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>537.5540596988269</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>390.6641122009165</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>223.4680129157965</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,10 +6478,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7077,19 +7077,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.262924751342039e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>80.64613085857654</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>11.93987647707755</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>24.63391537253455</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055056</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818157</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818153</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="F4" t="n">
         <v>12996.8641468305</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.903836099</v>
+        <v>-748872.9038360986</v>
       </c>
       <c r="C6" t="n">
-        <v>579871.8418914942</v>
+        <v>579871.8418914941</v>
       </c>
       <c r="D6" t="n">
-        <v>579871.8418914945</v>
+        <v>579871.8418914941</v>
       </c>
       <c r="E6" t="n">
-        <v>326910.0346730566</v>
+        <v>327222.6760019775</v>
       </c>
       <c r="F6" t="n">
-        <v>652322.4964804109</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="G6" t="n">
-        <v>652322.4964804115</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="H6" t="n">
-        <v>652322.4964804115</v>
+        <v>652635.1378093325</v>
       </c>
       <c r="I6" t="n">
-        <v>652322.4964804115</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="J6" t="n">
-        <v>434791.2940831335</v>
+        <v>435103.9354120552</v>
       </c>
       <c r="K6" t="n">
-        <v>652322.4964804115</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="L6" t="n">
-        <v>652322.4964804115</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="M6" t="n">
-        <v>567267.4685448996</v>
+        <v>567580.1098738209</v>
       </c>
       <c r="N6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="O6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="P6" t="n">
-        <v>652322.4964804114</v>
+        <v>652635.1378093325</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.1776438813024</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.32522828944117</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408893</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>225.0197308648127</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>182.8345551638538</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.7078566989492</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>176.0595294020017</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>259.6421064805526</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944138</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>573.8098963904301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>431.6758624684119</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
